--- a/BalanceSheet/STE_bal.xlsx
+++ b/BalanceSheet/STE_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>17746000.0</v>
+        <v>294000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1749000.0</v>
+        <v>279000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-27015000.0</v>
+        <v>277000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-6251000.0</v>
+        <v>248000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-6488000.0</v>
+        <v>252000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>236837000.0</v>
@@ -1554,19 +1554,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-3429000.0</v>
+        <v>134000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-10534000.0</v>
+        <v>125000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-17011000.0</v>
+        <v>134000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>15831000.0</v>
+        <v>149000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>449000.0</v>
+        <v>140000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>133802000.0</v>
@@ -2626,19 +2626,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-318000.0</v>
+        <v>264000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1290000.0</v>
+        <v>165000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-189000.0</v>
+        <v>161000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>10562000.0</v>
+        <v>161000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-373000.0</v>
+        <v>156000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>152748000.0</v>
